--- a/AEMostofa/Meherpur WD Division/P1/Amtoil Khal/XL_FILE_CROSS_SECTION/Data_Prep_Amtoli_Khal_Dataprep_Input.xlsx
+++ b/AEMostofa/Meherpur WD Division/P1/Amtoil Khal/XL_FILE_CROSS_SECTION/Data_Prep_Amtoli_Khal_Dataprep_Input.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Drawing_Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -124,8 +124,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +188,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -266,6 +271,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -300,6 +306,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,14 +482,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -531,7 +541,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -557,7 +567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -583,7 +593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -609,7 +619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -635,7 +645,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -661,7 +671,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -687,7 +697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -713,7 +723,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -739,7 +749,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -765,7 +775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
